--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167931.7254449933</v>
+        <v>162892.0320054701</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3813074.740973606</v>
+        <v>3770019.83817811</v>
       </c>
     </row>
     <row r="11">
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.8491356093571</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>63.21961230588766</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,70 +2323,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E23" t="n">
-        <v>37.70120739332352</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="Y23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>40.77707764739602</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>14.22588546023341</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>29.26577526641464</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>118.1407341534379</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>37.70120739332342</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H26" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>229.9609751381512</v>
@@ -2631,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28.42782658817351</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>79.08012240725678</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,10 +2715,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>89.73163134740373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.055197997175</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>65.59588116322361</v>
-      </c>
       <c r="H29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0.08822281599018904</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>79.3667956667111</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45711600933544</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48.36674055617014</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>109.0392325178937</v>
+      </c>
+      <c r="X31" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V31" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>37.70120739332342</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>37.70120739332352</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>78.29943553178011</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>91.56682885711891</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>118.1407341534379</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3275,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G35" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H35" t="n">
         <v>229.9609751381512</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>112.2737714402355</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
@@ -3357,10 +3359,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>118.5344591080164</v>
       </c>
     </row>
     <row r="37">
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>1.761703922407298</v>
+        <v>53.33442808754708</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V37" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W37" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>211.2450056236571</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
+        <v>211.2450056236572</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V38" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.66634673407597</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>91.44498230005199</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>131.6846499321096</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -3682,7 +3684,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="E41" t="n">
         <v>229.9609751381512</v>
@@ -3752,61 +3754,61 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>202.5496269016835</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -3834,7 +3836,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>76.65498350871987</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>80.10880969107289</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>229.9609751381512</v>
@@ -3958,13 +3960,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.761703922407231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.08822281599025586</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>68.04101272029405</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>521.0465322227953</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>288.7627189519355</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>56.47890568107576</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>246.0582433978217</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>279.6756096381168</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>507.3369750248864</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>734.998340411656</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>734.998340411656</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>734.998340411656</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>753.3303454936552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169.0511084509599</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>131.5118602307795</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>359.1732256175491</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>464.5211697790654</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>464.5211697790654</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5211697790654</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>464.5211697790654</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>895.9268574506692</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>760.996180350538</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>584.0123685494465</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>373.9492252280883</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>169.0511084509599</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>169.0511084509599</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>169.0511084509599</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>169.0511084509599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.601995945063</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.39687801105217</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>100.231919120994</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>264.3595589947938</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330579</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>633.8407713642671</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>796.5455384059751</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>916.4217041825536</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>717.0278167351539</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>717.0278167351539</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>484.7440034642941</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.4601901934343</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>188.601995945063</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>188.601995945063</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.601995945063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C23" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D23" t="n">
-        <v>753.3303454936552</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E23" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5987,25 +5989,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K23" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L23" t="n">
-        <v>390.7080163066498</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M23" t="n">
-        <v>390.7080163066498</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N23" t="n">
-        <v>390.7080163066498</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P23" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6014,25 +6016,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T23" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U23" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V23" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W23" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X23" t="n">
-        <v>753.3303454936552</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y23" t="n">
-        <v>753.3303454936552</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>321.1053601114104</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="C24" t="n">
-        <v>170.4511296715026</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="D24" t="n">
-        <v>170.4511296715026</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="E24" t="n">
-        <v>170.4511296715026</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F24" t="n">
-        <v>170.4511296715026</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G24" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H24" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I24" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L24" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M24" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="N24" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="O24" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O24" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P24" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W24" t="n">
-        <v>689.7266546858915</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X24" t="n">
-        <v>500.4195770359032</v>
+        <v>571.6891027005497</v>
       </c>
       <c r="Y24" t="n">
-        <v>321.1053601114104</v>
+        <v>392.3748857760569</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C25" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="D25" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="E25" t="n">
-        <v>18.39687801105209</v>
+        <v>205.2842019560737</v>
       </c>
       <c r="F25" t="n">
-        <v>18.39687801105209</v>
+        <v>47.95826716904668</v>
       </c>
       <c r="G25" t="n">
         <v>18.39687801105209</v>
@@ -6154,7 +6156,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M25" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N25" t="n">
         <v>633.8407713642671</v>
@@ -6178,7 +6180,7 @@
         <v>593.126827367731</v>
       </c>
       <c r="U25" t="n">
-        <v>360.8430140968712</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V25" t="n">
         <v>360.8430140968712</v>
@@ -6187,10 +6189,10 @@
         <v>360.8430140968712</v>
       </c>
       <c r="X25" t="n">
-        <v>241.5089391944087</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="C26" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="D26" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="E26" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="F26" t="n">
-        <v>455.276274010885</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="G26" t="n">
-        <v>222.9924607400252</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="H26" t="n">
-        <v>18.39687801105209</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="I26" t="n">
         <v>18.39687801105209</v>
@@ -6233,16 +6235,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="M26" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N26" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O26" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6251,25 +6253,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W26" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X26" t="n">
-        <v>687.5600872817448</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="Y26" t="n">
-        <v>455.276274010885</v>
+        <v>288.7627189519355</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.7333491871505</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C27" t="n">
-        <v>438.0791187472427</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>307.990151368723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>171.5436604796107</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>47.11185436274251</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
         <v>18.39687801105209</v>
@@ -6303,52 +6305,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J27" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>246.0582433978217</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L27" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M27" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N27" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="O27" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P27" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T27" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U27" t="n">
-        <v>919.8439005526046</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V27" t="n">
-        <v>919.8439005526046</v>
+        <v>328.3930354002468</v>
       </c>
       <c r="W27" t="n">
-        <v>919.8439005526046</v>
+        <v>98.2757895335337</v>
       </c>
       <c r="X27" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y27" t="n">
-        <v>740.5296836281118</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>279.2400074070869</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="C28" t="n">
-        <v>109.0348894730761</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="D28" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="E28" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F28" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G28" t="n">
         <v>18.39687801105209</v>
@@ -6406,28 +6408,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S28" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>371.8589506029078</v>
       </c>
       <c r="U28" t="n">
-        <v>919.8439005526046</v>
+        <v>371.8589506029078</v>
       </c>
       <c r="V28" t="n">
-        <v>919.8439005526046</v>
+        <v>371.8589506029078</v>
       </c>
       <c r="W28" t="n">
-        <v>919.8439005526046</v>
+        <v>371.8589506029078</v>
       </c>
       <c r="X28" t="n">
-        <v>687.5600872817448</v>
+        <v>371.8589506029078</v>
       </c>
       <c r="Y28" t="n">
-        <v>464.4480260983881</v>
+        <v>371.8589506029078</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>919.8439005526046</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="C29" t="n">
-        <v>687.5600872817448</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="D29" t="n">
-        <v>455.276274010885</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="E29" t="n">
-        <v>455.276274010885</v>
+        <v>483.0536185083173</v>
       </c>
       <c r="F29" t="n">
-        <v>455.276274010885</v>
+        <v>250.7698052374575</v>
       </c>
       <c r="G29" t="n">
-        <v>389.017808189447</v>
+        <v>18.48599196659774</v>
       </c>
       <c r="H29" t="n">
-        <v>156.7339949185873</v>
+        <v>18.48599196659774</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K29" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L29" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M29" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N29" t="n">
-        <v>390.7080163066498</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O29" t="n">
-        <v>618.3693816934194</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P29" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>584.0123685494465</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>433.3581381095387</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>433.3581381095387</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I30" t="n">
         <v>18.39687801105209</v>
@@ -6543,19 +6545,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L30" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M30" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N30" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O30" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O30" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P30" t="n">
         <v>919.8439005526046</v>
@@ -6564,28 +6566,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S30" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T30" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U30" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V30" t="n">
-        <v>584.0123685494465</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W30" t="n">
-        <v>584.0123685494465</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X30" t="n">
-        <v>584.0123685494465</v>
+        <v>277.8795754069702</v>
       </c>
       <c r="Y30" t="n">
-        <v>584.0123685494465</v>
+        <v>98.56535848247745</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.25217150213305</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="C31" t="n">
-        <v>67.25217150213305</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="D31" t="n">
-        <v>67.25217150213305</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="E31" t="n">
-        <v>67.25217150213305</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="F31" t="n">
-        <v>67.25217150213305</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="G31" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="H31" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I31" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J31" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K31" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L31" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M31" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O31" t="n">
         <v>796.5455384059751</v>
@@ -6652,19 +6654,19 @@
         <v>717.0278167351539</v>
       </c>
       <c r="U31" t="n">
-        <v>484.7440034642941</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="V31" t="n">
-        <v>252.4601901934343</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="W31" t="n">
-        <v>252.4601901934343</v>
+        <v>606.8871778281906</v>
       </c>
       <c r="X31" t="n">
-        <v>252.4601901934343</v>
+        <v>374.6033645573308</v>
       </c>
       <c r="Y31" t="n">
-        <v>252.4601901934343</v>
+        <v>151.4913033739742</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>482.9645045527716</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="C32" t="n">
-        <v>482.9645045527716</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="D32" t="n">
-        <v>482.9645045527716</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="E32" t="n">
-        <v>250.6806912819119</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="F32" t="n">
-        <v>250.6806912819119</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="G32" t="n">
-        <v>18.39687801105209</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="H32" t="n">
         <v>18.39687801105209</v>
@@ -6707,7 +6709,7 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M32" t="n">
-        <v>692.182535165835</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N32" t="n">
         <v>919.8439005526046</v>
@@ -6731,19 +6733,19 @@
         <v>753.3303454936552</v>
       </c>
       <c r="U32" t="n">
-        <v>715.2483178236314</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="V32" t="n">
-        <v>715.2483178236314</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="W32" t="n">
-        <v>715.2483178236314</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="X32" t="n">
-        <v>715.2483178236314</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="Y32" t="n">
-        <v>482.9645045527716</v>
+        <v>56.47890568107576</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>479.6635113645333</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C33" t="n">
-        <v>479.6635113645333</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D33" t="n">
-        <v>479.6635113645333</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E33" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F33" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
@@ -6783,19 +6785,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L33" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M33" t="n">
-        <v>464.5211697790654</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N33" t="n">
-        <v>692.182535165835</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O33" t="n">
-        <v>919.8439005526046</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P33" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
@@ -6807,22 +6809,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U33" t="n">
-        <v>709.7807572312464</v>
+        <v>650.368342431191</v>
       </c>
       <c r="V33" t="n">
-        <v>709.7807572312464</v>
+        <v>427.828340802258</v>
       </c>
       <c r="W33" t="n">
-        <v>479.6635113645333</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="X33" t="n">
-        <v>479.6635113645333</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y33" t="n">
-        <v>479.6635113645333</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>344.2351090425481</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C34" t="n">
-        <v>174.0299911085373</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D34" t="n">
         <v>18.39687801105209</v>
@@ -6880,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="V34" t="n">
-        <v>919.8439005526046</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="W34" t="n">
-        <v>919.8439005526046</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="X34" t="n">
-        <v>752.5551889172061</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y34" t="n">
-        <v>529.4431277338495</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="D35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F35" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G35" t="n">
         <v>250.6806912819119</v>
@@ -6935,22 +6937,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L35" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M35" t="n">
-        <v>618.3693816934194</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N35" t="n">
-        <v>734.998340411656</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O35" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P35" t="n">
         <v>734.998340411656</v>
@@ -6971,16 +6973,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W35" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y35" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.7428428848</v>
+        <v>648.315789234859</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7428428848</v>
+        <v>497.6615587949513</v>
       </c>
       <c r="D36" t="n">
-        <v>399.3349929451682</v>
+        <v>367.5725914164316</v>
       </c>
       <c r="E36" t="n">
-        <v>262.8885020560559</v>
+        <v>231.1261005273194</v>
       </c>
       <c r="F36" t="n">
-        <v>138.4566959391877</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G36" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7023,16 +7025,16 @@
         <v>586.8345910043187</v>
       </c>
       <c r="M36" t="n">
-        <v>586.8345910043187</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N36" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O36" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P36" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7044,22 +7046,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T36" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U36" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V36" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W36" t="n">
-        <v>512.7428428848</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7428428848</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.7428428848</v>
+        <v>800.1121236758204</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="C37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="D37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="E37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="F37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="G37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="H37" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I37" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J37" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K37" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L37" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M37" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O37" t="n">
         <v>796.5455384059751</v>
@@ -7117,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>717.0278167351539</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T37" t="n">
-        <v>715.2483178236314</v>
+        <v>539.25366768334</v>
       </c>
       <c r="U37" t="n">
-        <v>482.9645045527716</v>
+        <v>539.25366768334</v>
       </c>
       <c r="V37" t="n">
-        <v>250.6806912819119</v>
+        <v>539.25366768334</v>
       </c>
       <c r="W37" t="n">
-        <v>18.39687801105209</v>
+        <v>539.25366768334</v>
       </c>
       <c r="X37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
         <v>18.39687801105209</v>
@@ -7181,13 +7183,13 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M38" t="n">
-        <v>618.3693816934194</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N38" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7205,19 +7207,19 @@
         <v>696.3432981120213</v>
       </c>
       <c r="U38" t="n">
-        <v>464.0594848411615</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V38" t="n">
-        <v>231.7756715703017</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W38" t="n">
-        <v>231.7756715703017</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X38" t="n">
-        <v>231.7756715703017</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.7756715703017</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.3310550342148</v>
+        <v>305.4975993400722</v>
       </c>
       <c r="C39" t="n">
-        <v>542.676824594307</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="D39" t="n">
-        <v>412.5878572157874</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E39" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F39" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G39" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
@@ -7260,13 +7262,13 @@
         <v>246.0582433978217</v>
       </c>
       <c r="M39" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P39" t="n">
         <v>919.8439005526046</v>
@@ -7281,22 +7283,22 @@
         <v>784.9132234524734</v>
       </c>
       <c r="T39" t="n">
-        <v>784.9132234524734</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U39" t="n">
-        <v>784.9132234524734</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V39" t="n">
-        <v>784.9132234524734</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="W39" t="n">
-        <v>784.9132234524734</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="X39" t="n">
-        <v>784.9132234524734</v>
+        <v>305.4975993400722</v>
       </c>
       <c r="Y39" t="n">
-        <v>784.9132234524734</v>
+        <v>305.4975993400722</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.9429111851816</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="C40" t="n">
-        <v>795.9429111851816</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="D40" t="n">
-        <v>795.9429111851816</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="E40" t="n">
-        <v>662.9281132739598</v>
+        <v>632.5498431000617</v>
       </c>
       <c r="F40" t="n">
-        <v>505.6021784869328</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="G40" t="n">
-        <v>337.3481245863783</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="H40" t="n">
-        <v>181.8695735478723</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I40" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J40" t="n">
         <v>18.39687801105209</v>
@@ -7354,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X40" t="n">
-        <v>795.9429111851816</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.9429111851816</v>
+        <v>788.1086552408592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C41" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D41" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E41" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F41" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G41" t="n">
         <v>18.39687801105209</v>
@@ -7409,22 +7411,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>18.39687801105209</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M41" t="n">
-        <v>236.8598043922958</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N41" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O41" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P41" t="n">
         <v>919.8439005526046</v>
@@ -7445,16 +7447,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V41" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W41" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X41" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y41" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>351.1859184554549</v>
+        <v>680.0781907635957</v>
       </c>
       <c r="C42" t="n">
-        <v>351.1859184554549</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D42" t="n">
-        <v>351.1859184554549</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E42" t="n">
-        <v>351.1859184554549</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7541123385867</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G42" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H42" t="n">
         <v>18.39687801105209</v>
@@ -7491,19 +7493,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L42" t="n">
-        <v>473.7196087845913</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M42" t="n">
-        <v>473.7196087845913</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N42" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O42" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P42" t="n">
         <v>692.182535165835</v>
@@ -7512,28 +7514,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T42" t="n">
-        <v>607.9294116513819</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U42" t="n">
-        <v>607.9294116513819</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V42" t="n">
-        <v>530.5001353799477</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W42" t="n">
-        <v>530.5001353799477</v>
+        <v>680.0781907635957</v>
       </c>
       <c r="X42" t="n">
-        <v>530.5001353799477</v>
+        <v>680.0781907635957</v>
       </c>
       <c r="Y42" t="n">
-        <v>351.1859184554549</v>
+        <v>680.0781907635957</v>
       </c>
     </row>
     <row r="43">
@@ -7576,7 +7578,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M43" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N43" t="n">
         <v>633.8407713642671</v>
@@ -7594,22 +7596,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S43" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>484.7440034642941</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4601901934343</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V43" t="n">
-        <v>20.17637692257455</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W43" t="n">
-        <v>20.17637692257455</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X43" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y43" t="n">
         <v>18.39687801105209</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825538</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>687.5600872817449</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>455.2762740108851</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.9924607400253</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
   </sheetData>
@@ -9401,16 +9403,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>187.2051053267494</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
         <v>149.5638374240964</v>
@@ -9419,7 +9421,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
@@ -9495,10 +9497,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>278.4750710187352</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O23" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9881,19 +9883,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O26" t="n">
-        <v>267.3708664324162</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P26" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
@@ -10118,7 +10120,7 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
         <v>379.0794664759352</v>
@@ -10127,10 +10129,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
-        <v>380.2624223790764</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q29" t="n">
-        <v>219.0574392996201</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,22 +10193,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L30" t="n">
-        <v>196.4724116665307</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N30" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10355,10 +10357,10 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>224.2837924789551</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N32" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O32" t="n">
         <v>149.5638374240964</v>
@@ -10431,10 +10433,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>310.7299694642351</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>315.3330879923178</v>
@@ -10443,10 +10445,10 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N35" t="n">
-        <v>266.9255203461039</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10671,19 +10673,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O36" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,16 +10831,16 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10908,16 +10910,16 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P39" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>370.3946742050441</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O41" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O42" t="n">
-        <v>313.3571814962057</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
         <v>320.9491282940651</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O44" t="n">
         <v>149.5638374240964</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>99.2525383451364</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24048,7 +24050,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
-        <v>17.46546600328654</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -24127,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24175,19 +24177,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>217.2774857422465</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24209,19 +24211,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E23" t="n">
-        <v>360.8564822412974</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F23" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24269,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>183.0084521145902</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>109.5012934491557</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24294,16 +24296,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.6333342886208</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>175.2139736830806</v>
@@ -24345,7 +24347,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>137.3057380951343</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>113.5987848414088</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2925930274908</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>99.2525383451364</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24503,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y26" t="n">
         <v>162.5648268504537</v>
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>90.4313931606807</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
         <v>87.41444223540508</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>108.3338844662317</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>64.34515061910666</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24613,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>14.30666331627324</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -24664,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C29" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
-        <v>343.4352467936532</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H29" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.8655229224696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>70.91157542984062</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>102.6249099708857</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24850,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>118.2047728053788</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>171.4578655302405</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24925,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>283.1410125358508</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24971,19 +24973,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>215.4939948764238</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25004,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>56.78259044844104</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,13 +25049,13 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>116.3956830310257</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>164.4436696870802</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25138,7 +25140,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G35" t="n">
-        <v>206.4815010551934</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H35" t="n">
         <v>90.88124479102308</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>183.0084521145902</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>16.51430626449896</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25284,7 +25286,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
@@ -25293,13 +25295,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>58.98661564723145</v>
       </c>
     </row>
     <row r="37">
@@ -25327,10 +25329,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>231.6001573910409</v>
+        <v>180.0274332259011</v>
       </c>
       <c r="U37" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25391,7 +25393,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>177.9987408584416</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25445,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>23.23422713159621</v>
+        <v>41.95019664609021</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25457,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59.61202436247575</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25482,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25533,7 +25535,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>95.96902457343647</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25555,7 +25557,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>22.31857408727987</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>101.3216261362188</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25631,7 +25633,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E41" t="n">
         <v>168.5967144964697</v>
@@ -25640,7 +25642,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G41" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25685,7 +25687,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25722,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
         <v>48.89338144820752</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>143.6596181039238</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>147.7072637169731</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25834,10 +25836,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>52.62342870236691</v>
@@ -25846,13 +25848,13 @@
         <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>29.18989209316331</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.1192366491158</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>396.4015754382926</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -25998,19 +26000,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>152.2735888923496</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26077,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>29.18989209316322</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435239.714319743</v>
+        <v>232951.5378089735</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435239.7143197429</v>
+        <v>435239.714319743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435239.7143197428</v>
+        <v>435239.714319743</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435239.714319743</v>
+        <v>435239.7143197429</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435239.7143197429</v>
+        <v>435239.7143197431</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435239.7143197429</v>
+        <v>435239.7143197428</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>435239.7143197429</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>48844.67728252667</v>
       </c>
       <c r="C2" t="n">
-        <v>48844.67728252667</v>
+        <v>48844.67728252668</v>
       </c>
       <c r="D2" t="n">
-        <v>48844.67728252667</v>
+        <v>48844.67728252668</v>
       </c>
       <c r="E2" t="n">
-        <v>48844.67728252667</v>
+        <v>48844.67728252668</v>
       </c>
       <c r="F2" t="n">
         <v>48844.67728252667</v>
       </c>
       <c r="G2" t="n">
-        <v>48844.67728252669</v>
+        <v>48844.67728252667</v>
       </c>
       <c r="H2" t="n">
-        <v>91190.60188992739</v>
+        <v>48844.67728252667</v>
       </c>
       <c r="I2" t="n">
-        <v>91190.60188992739</v>
+        <v>91190.60188992738</v>
       </c>
       <c r="J2" t="n">
         <v>91190.60188992739</v>
@@ -26347,13 +26349,13 @@
         <v>91190.60188992738</v>
       </c>
       <c r="N2" t="n">
-        <v>91190.60188992738</v>
+        <v>91190.60188992741</v>
       </c>
       <c r="O2" t="n">
-        <v>91190.60188992738</v>
+        <v>91190.60188992735</v>
       </c>
       <c r="P2" t="n">
-        <v>48844.67728252667</v>
+        <v>91190.60188992736</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61151.45246971229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>18786.41433943334</v>
       </c>
       <c r="H4" t="n">
-        <v>35603.40934884742</v>
+        <v>18786.41433943334</v>
       </c>
       <c r="I4" t="n">
         <v>35603.40934884742</v>
@@ -26442,7 +26444,7 @@
         <v>35603.40934884742</v>
       </c>
       <c r="K4" t="n">
-        <v>35603.40934884742</v>
+        <v>35603.40934884741</v>
       </c>
       <c r="L4" t="n">
         <v>35603.40934884742</v>
@@ -26451,13 +26453,13 @@
         <v>35603.40934884741</v>
       </c>
       <c r="N4" t="n">
-        <v>35603.40934884742</v>
+        <v>35603.40934884741</v>
       </c>
       <c r="O4" t="n">
         <v>35603.40934884742</v>
       </c>
       <c r="P4" t="n">
-        <v>18786.41433943334</v>
+        <v>35603.40934884742</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13981.62728839959</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>13981.62728839959</v>
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906668</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906654</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906654</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309335</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="H6" t="n">
-        <v>-20439.97548836905</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="I6" t="n">
-        <v>41605.56525268038</v>
+        <v>-19545.88721703192</v>
       </c>
       <c r="J6" t="n">
         <v>41605.56525268038</v>
       </c>
       <c r="K6" t="n">
-        <v>41605.56525268037</v>
+        <v>41605.56525268038</v>
       </c>
       <c r="L6" t="n">
         <v>41605.56525268037</v>
@@ -26555,13 +26557,13 @@
         <v>41605.56525268038</v>
       </c>
       <c r="N6" t="n">
-        <v>41605.56525268037</v>
+        <v>41605.5652526804</v>
       </c>
       <c r="O6" t="n">
-        <v>41605.56525268037</v>
+        <v>41605.56525268034</v>
       </c>
       <c r="P6" t="n">
-        <v>30058.26294309333</v>
+        <v>41605.56525268035</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>229.9609751381512</v>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>33.9569355962577</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O24" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P24" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36601,19 +36603,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8070290083198</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L27" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="M27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
         <v>229.9609751381512</v>
@@ -36847,10 +36849,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P29" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q29" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L30" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="N32" t="n">
         <v>74.55874088122788</v>
-      </c>
-      <c r="N32" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>229.9609751381512</v>
@@ -37163,10 +37165,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N35" t="n">
-        <v>117.8070290083198</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37391,19 +37393,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,16 +37551,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O39" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152508</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="O42" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L42" t="n">
+      <c r="P42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>220.6696226073169</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>229.9609751381512</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,7 +37952,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370788</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162892.0320054701</v>
+        <v>151928.7391969603</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.17872461</v>
+        <v>12729019.1787246</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.35941038</v>
+        <v>18807999.35941039</v>
       </c>
     </row>
     <row r="9">
@@ -2323,20 +2323,20 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.78360153796395</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.77707764739602</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>87.41444223540508</v>
@@ -2447,25 +2447,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>29.35956753540232</v>
       </c>
     </row>
     <row r="25">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>29.26577526641464</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="F26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I26" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>79.08012240725678</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>110.3224434375686</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.055197997175</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08822281599018904</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.3667956667111</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.1032990510594</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.23811292341628</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>109.0392325178937</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V32" t="n">
         <v>229.9609751381512</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>110.0225096953434</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>91.56682885711891</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3173,10 +3173,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
-        <v>118.1407341534379</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,58 +3280,58 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T35" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H35" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -3356,13 +3356,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>103.0018393864281</v>
       </c>
       <c r="Y36" t="n">
-        <v>118.5344591080164</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.62586137356244</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>53.33442808754708</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>211.2450056236572</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>91.44498230005199</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>64.91246457474244</v>
       </c>
     </row>
     <row r="40">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.9248570379648</v>
       </c>
     </row>
     <row r="41">
@@ -3745,20 +3745,20 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F41" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>80.10880969107289</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
     </row>
     <row r="43">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30.13582899825842</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.08822281599025586</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>211.2450056236571</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U44" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="E44" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S44" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>143.977516838306</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>68.04101272029405</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.0581481067626</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="X46" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>491.8368293385938</v>
+      </c>
+      <c r="C23" t="n">
+        <v>491.8368293385938</v>
+      </c>
+      <c r="D23" t="n">
+        <v>491.8368293385938</v>
+      </c>
+      <c r="E23" t="n">
         <v>482.9645045527716</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="n">
         <v>482.9645045527716</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="E23" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G23" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5989,22 +5989,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L23" t="n">
-        <v>236.8598043922958</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M23" t="n">
-        <v>464.5211697790654</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N23" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O23" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P23" t="n">
         <v>919.8439005526046</v>
@@ -6013,28 +6013,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U23" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V23" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W23" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X23" t="n">
-        <v>715.2483178236314</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="Y23" t="n">
-        <v>482.9645045527716</v>
+        <v>491.8368293385938</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>351.1859184554549</v>
+        <v>236.7832617889708</v>
       </c>
       <c r="C24" t="n">
-        <v>351.1859184554549</v>
+        <v>236.7832617889708</v>
       </c>
       <c r="D24" t="n">
-        <v>351.1859184554549</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="E24" t="n">
-        <v>351.1859184554549</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F24" t="n">
-        <v>226.7541123385867</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G24" t="n">
         <v>106.6942944104512</v>
@@ -6071,16 +6071,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M24" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N24" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O24" t="n">
         <v>464.5211697790654</v>
@@ -6095,25 +6095,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T24" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U24" t="n">
-        <v>760.996180350538</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V24" t="n">
-        <v>760.996180350538</v>
+        <v>685.863714129311</v>
       </c>
       <c r="W24" t="n">
-        <v>760.996180350538</v>
+        <v>455.7464682625979</v>
       </c>
       <c r="X24" t="n">
-        <v>571.6891027005497</v>
+        <v>266.4393906126095</v>
       </c>
       <c r="Y24" t="n">
-        <v>392.3748857760569</v>
+        <v>236.7832617889708</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E25" t="n">
-        <v>205.2842019560737</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F25" t="n">
-        <v>47.95826716904668</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
         <v>18.39687801105209</v>
@@ -6156,7 +6156,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M25" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
         <v>633.8407713642671</v>
@@ -6171,28 +6171,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S25" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>593.126827367731</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U25" t="n">
-        <v>593.126827367731</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V25" t="n">
-        <v>360.8430140968712</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y25" t="n">
-        <v>360.8430140968712</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C26" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D26" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="E26" t="n">
-        <v>288.7627189519355</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F26" t="n">
-        <v>56.47890568107576</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G26" t="n">
-        <v>56.47890568107576</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H26" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I26" t="n">
         <v>18.39687801105209</v>
@@ -6232,19 +6232,19 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>390.7080163066498</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M26" t="n">
-        <v>618.3693816934194</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N26" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P26" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6253,25 +6253,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U26" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V26" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W26" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X26" t="n">
-        <v>521.0465322227953</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.39687801105209</v>
+        <v>299.1400758294795</v>
       </c>
       <c r="C27" t="n">
-        <v>18.39687801105209</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D27" t="n">
         <v>18.39687801105209</v>
@@ -6308,49 +6308,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M27" t="n">
         <v>586.8345910043187</v>
       </c>
       <c r="N27" t="n">
-        <v>814.4959563910883</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O27" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T27" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U27" t="n">
-        <v>550.9330370291798</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V27" t="n">
-        <v>328.3930354002468</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="W27" t="n">
-        <v>98.2757895335337</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="X27" t="n">
-        <v>18.39687801105209</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.39687801105209</v>
+        <v>450.9364102704409</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C28" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D28" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E28" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F28" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G28" t="n">
         <v>18.39687801105209</v>
@@ -6408,28 +6408,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S28" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>371.8589506029078</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U28" t="n">
-        <v>371.8589506029078</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V28" t="n">
-        <v>371.8589506029078</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W28" t="n">
-        <v>371.8589506029078</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X28" t="n">
-        <v>371.8589506029078</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y28" t="n">
-        <v>371.8589506029078</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.0536185083173</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C29" t="n">
-        <v>483.0536185083173</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D29" t="n">
-        <v>483.0536185083173</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E29" t="n">
-        <v>483.0536185083173</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F29" t="n">
-        <v>250.7698052374575</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G29" t="n">
-        <v>18.48599196659774</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.48599196659774</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
@@ -6466,19 +6466,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K29" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L29" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M29" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N29" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
         <v>919.8439005526046</v>
@@ -6487,28 +6487,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T29" t="n">
-        <v>715.3374317791771</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U29" t="n">
-        <v>715.3374317791771</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V29" t="n">
-        <v>715.3374317791771</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="W29" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X29" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y29" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.39687801105209</v>
+        <v>379.0826000428635</v>
       </c>
       <c r="C30" t="n">
-        <v>18.39687801105209</v>
+        <v>272.9176515064399</v>
       </c>
       <c r="D30" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="E30" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F30" t="n">
         <v>18.39687801105209</v>
@@ -6551,43 +6551,43 @@
         <v>359.1732256175491</v>
       </c>
       <c r="M30" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N30" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="O30" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N30" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="P30" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V30" t="n">
-        <v>697.3038989236717</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W30" t="n">
-        <v>467.1866530569586</v>
+        <v>530.8789344838249</v>
       </c>
       <c r="X30" t="n">
-        <v>277.8795754069702</v>
+        <v>530.8789344838249</v>
       </c>
       <c r="Y30" t="n">
-        <v>98.56535848247745</v>
+        <v>530.8789344838249</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.4913033739742</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="C31" t="n">
-        <v>151.4913033739742</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="D31" t="n">
-        <v>151.4913033739742</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="E31" t="n">
-        <v>151.4913033739742</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F31" t="n">
-        <v>151.4913033739742</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G31" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H31" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I31" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J31" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K31" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L31" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O31" t="n">
         <v>796.5455384059751</v>
@@ -6645,28 +6645,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S31" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T31" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U31" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V31" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W31" t="n">
-        <v>606.8871778281906</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X31" t="n">
-        <v>374.6033645573308</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.4913033739742</v>
+        <v>572.830850001825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H32" t="n">
         <v>18.39687801105209</v>
@@ -6700,25 +6700,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K32" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L32" t="n">
-        <v>618.3693816934194</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M32" t="n">
-        <v>846.030747080189</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N32" t="n">
-        <v>919.8439005526046</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
@@ -6727,25 +6727,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T32" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U32" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V32" t="n">
-        <v>288.7627189519355</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W32" t="n">
-        <v>56.47890568107576</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X32" t="n">
-        <v>56.47890568107576</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.39687801105209</v>
+        <v>253.9625323050348</v>
       </c>
       <c r="C33" t="n">
-        <v>18.39687801105209</v>
+        <v>253.9625323050348</v>
       </c>
       <c r="D33" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="E33" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F33" t="n">
         <v>18.39687801105209</v>
@@ -6779,52 +6779,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M33" t="n">
-        <v>18.39687801105209</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N33" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O33" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P33" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T33" t="n">
-        <v>742.8600887515131</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U33" t="n">
-        <v>650.368342431191</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V33" t="n">
-        <v>427.828340802258</v>
+        <v>673.3868558217363</v>
       </c>
       <c r="W33" t="n">
-        <v>197.7110949355448</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="X33" t="n">
-        <v>197.7110949355448</v>
+        <v>253.9625323050348</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.39687801105209</v>
+        <v>253.9625323050348</v>
       </c>
     </row>
     <row r="34">
@@ -6867,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6882,25 +6882,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S34" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T34" t="n">
-        <v>360.8430140968712</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U34" t="n">
-        <v>241.5089391944087</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V34" t="n">
-        <v>241.5089391944087</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W34" t="n">
-        <v>241.5089391944087</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X34" t="n">
-        <v>241.5089391944087</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y34" t="n">
         <v>18.39687801105209</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F35" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H35" t="n">
         <v>18.39687801105209</v>
@@ -6940,22 +6940,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L35" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M35" t="n">
-        <v>52.01424425134721</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N35" t="n">
-        <v>279.6756096381168</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O35" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
@@ -6964,25 +6964,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T35" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U35" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V35" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W35" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>648.315789234859</v>
+        <v>435.5865667185918</v>
       </c>
       <c r="C36" t="n">
-        <v>497.6615587949513</v>
+        <v>284.932336278684</v>
       </c>
       <c r="D36" t="n">
-        <v>367.5725914164316</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E36" t="n">
-        <v>231.1261005273194</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F36" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G36" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7022,16 +7022,16 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L36" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="M36" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N36" t="n">
         <v>586.8345910043187</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>814.4959563910883</v>
-      </c>
-      <c r="N36" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O36" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P36" t="n">
         <v>919.8439005526046</v>
@@ -7040,28 +7040,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S36" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T36" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U36" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V36" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="W36" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="X36" t="n">
-        <v>919.8439005526046</v>
+        <v>614.9007836430847</v>
       </c>
       <c r="Y36" t="n">
-        <v>800.1121236758204</v>
+        <v>435.5865667185918</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G37" t="n">
-        <v>306.9698544124802</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H37" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I37" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J37" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K37" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L37" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O37" t="n">
         <v>796.5455384059751</v>
@@ -7119,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>539.25366768334</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U37" t="n">
-        <v>539.25366768334</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V37" t="n">
-        <v>539.25366768334</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W37" t="n">
-        <v>539.25366768334</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y37" t="n">
-        <v>306.9698544124802</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H38" t="n">
         <v>18.39687801105209</v>
@@ -7174,25 +7174,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K38" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L38" t="n">
-        <v>618.3693816934194</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M38" t="n">
-        <v>846.030747080189</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N38" t="n">
-        <v>919.8439005526046</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P38" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
@@ -7207,16 +7207,16 @@
         <v>696.3432981120213</v>
       </c>
       <c r="U38" t="n">
-        <v>482.9645045527716</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y38" t="n">
         <v>250.6806912819119</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>305.4975993400722</v>
+        <v>543.6316998744833</v>
       </c>
       <c r="C39" t="n">
-        <v>154.8433689001644</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="D39" t="n">
-        <v>154.8433689001644</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E39" t="n">
-        <v>18.39687801105209</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F39" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G39" t="n">
         <v>18.39687801105209</v>
@@ -7253,22 +7253,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L39" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N39" t="n">
-        <v>701.380974171361</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P39" t="n">
         <v>919.8439005526046</v>
@@ -7277,28 +7277,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S39" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T39" t="n">
-        <v>607.9294116513819</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U39" t="n">
-        <v>397.8662683300237</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V39" t="n">
-        <v>397.8662683300237</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W39" t="n">
-        <v>397.8662683300237</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X39" t="n">
-        <v>305.4975993400722</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y39" t="n">
-        <v>305.4975993400722</v>
+        <v>695.4280343154446</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.1086552408592</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="C40" t="n">
-        <v>788.1086552408592</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="D40" t="n">
-        <v>788.1086552408592</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="E40" t="n">
-        <v>632.5498431000617</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="F40" t="n">
-        <v>475.2239083130347</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G40" t="n">
-        <v>306.9698544124802</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
         <v>18.39687801105209</v>
@@ -7356,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U40" t="n">
-        <v>919.8439005526046</v>
+        <v>331.375284643462</v>
       </c>
       <c r="V40" t="n">
-        <v>919.8439005526046</v>
+        <v>331.375284643462</v>
       </c>
       <c r="W40" t="n">
-        <v>919.8439005526046</v>
+        <v>331.375284643462</v>
       </c>
       <c r="X40" t="n">
-        <v>788.1086552408592</v>
+        <v>331.375284643462</v>
       </c>
       <c r="Y40" t="n">
-        <v>788.1086552408592</v>
+        <v>173.8754290495581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D41" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E41" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="F41" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G41" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H41" t="n">
         <v>18.39687801105209</v>
@@ -7414,49 +7414,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>390.7080163066498</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L41" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M41" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N41" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P41" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y41" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>680.0781907635957</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C42" t="n">
-        <v>529.4239603236879</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D42" t="n">
-        <v>399.3349929451682</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E42" t="n">
-        <v>262.8885020560559</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F42" t="n">
-        <v>138.4566959391877</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G42" t="n">
         <v>18.39687801105209</v>
@@ -7493,19 +7493,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L42" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M42" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N42" t="n">
-        <v>236.8598043922958</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O42" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P42" t="n">
         <v>692.182535165835</v>
@@ -7517,25 +7517,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T42" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U42" t="n">
-        <v>760.996180350538</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V42" t="n">
-        <v>760.996180350538</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W42" t="n">
-        <v>680.0781907635957</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X42" t="n">
-        <v>680.0781907635957</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y42" t="n">
-        <v>680.0781907635957</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.39687801105209</v>
+        <v>657.1198559703727</v>
       </c>
       <c r="C43" t="n">
-        <v>18.39687801105209</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D43" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E43" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F43" t="n">
         <v>18.39687801105209</v>
@@ -7578,7 +7578,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M43" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N43" t="n">
         <v>633.8407713642671</v>
@@ -7599,22 +7599,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U43" t="n">
         <v>687.5600872817448</v>
       </c>
       <c r="V43" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W43" t="n">
-        <v>222.9924607400252</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X43" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>715.2483178236314</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527716</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="D44" t="n">
-        <v>250.6806912819119</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="E44" t="n">
-        <v>18.39687801105209</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="F44" t="n">
         <v>18.39687801105209</v>
@@ -7672,28 +7672,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T44" t="n">
-        <v>715.3374317791771</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U44" t="n">
-        <v>715.3374317791771</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V44" t="n">
-        <v>715.3374317791771</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W44" t="n">
-        <v>715.3374317791771</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X44" t="n">
-        <v>715.3374317791771</v>
+        <v>231.7756715703017</v>
       </c>
       <c r="Y44" t="n">
-        <v>715.3374317791771</v>
+        <v>231.7756715703017</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18.39687801105209</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="C45" t="n">
-        <v>18.39687801105209</v>
+        <v>409.3641423955522</v>
       </c>
       <c r="D45" t="n">
-        <v>18.39687801105209</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E45" t="n">
-        <v>18.39687801105209</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F45" t="n">
         <v>18.39687801105209</v>
@@ -7727,52 +7727,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L45" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M45" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="N45" t="n">
+        <v>586.8345910043187</v>
+      </c>
+      <c r="O45" t="n">
         <v>692.182535165835</v>
       </c>
-      <c r="N45" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O45" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="P45" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T45" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U45" t="n">
-        <v>685.863714129311</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V45" t="n">
-        <v>617.1354184522463</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W45" t="n">
-        <v>387.0181725855332</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X45" t="n">
-        <v>197.7110949355448</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.39687801105209</v>
+        <v>554.7959775857603</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.39687801105209</v>
+        <v>232.1642128275284</v>
       </c>
       <c r="C46" t="n">
-        <v>18.39687801105209</v>
+        <v>232.1642128275284</v>
       </c>
       <c r="D46" t="n">
-        <v>18.39687801105209</v>
+        <v>232.1642128275284</v>
       </c>
       <c r="E46" t="n">
-        <v>18.39687801105209</v>
+        <v>232.1642128275284</v>
       </c>
       <c r="F46" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G46" t="n">
         <v>18.39687801105209</v>
@@ -7815,7 +7815,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
         <v>633.8407713642671</v>
@@ -7824,34 +7824,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5600872817449</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V46" t="n">
-        <v>455.2762740108851</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W46" t="n">
-        <v>222.9924607400253</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X46" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.39687801105209</v>
+        <v>232.1642128275284</v>
       </c>
     </row>
   </sheetData>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O23" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9719,19 +9719,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>317.0443399574658</v>
@@ -9880,22 +9880,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M26" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>224.1225783053243</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,25 +9956,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,10 +10114,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M29" t="n">
         <v>379.6860267358784</v>
@@ -10126,10 +10126,10 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>370.971069848242</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10199,19 +10199,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P30" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N32" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N33" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>311.6577757632308</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,25 +10588,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M35" t="n">
-        <v>183.681987193985</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
-        <v>379.0794664759352</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O35" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10670,19 +10670,19 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L36" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N38" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>313.3571814962057</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11062,7 +11062,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>373.0193783173885</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L41" t="n">
         <v>383.2091448686429</v>
@@ -11071,7 +11071,7 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
@@ -11080,7 +11080,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>317.0443399574658</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q42" t="n">
         <v>320.9491282940651</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>310.2665579406502</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L45" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -24211,19 +24211,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>168.5967144964697</v>
+        <v>389.774088096657</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>183.0084521145902</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.5012934491557</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>148.1615072198455</v>
       </c>
     </row>
     <row r="25">
@@ -24372,13 +24372,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>137.3057380951343</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24451,19 +24451,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>196.0080627329374</v>
       </c>
       <c r="F26" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I26" t="n">
-        <v>99.2525383451364</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>108.3338844662317</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>67.19863131767927</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>14.30666331627324</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24691,16 +24691,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.8655229224696</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>320.8924585660982</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.91157542984062</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>44.04438908444935</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>118.8592197488542</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>175.2139736830806</v>
@@ -24818,16 +24818,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>109.117825580972</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
@@ -24900,10 +24900,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>171.4578655302405</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1410125358508</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,13 +24967,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>23.23422713159621</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V32" t="n">
         <v>108.7247660653656</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>18.7655680093911</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>118.8592197488542</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>116.3956830310257</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
-        <v>164.4436696870802</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G35" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25204,22 +25204,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>292.2891550882196</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>183.0084521145902</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
@@ -25298,10 +25298,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>84.41216748706034</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.98661564723145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>117.9456519879865</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>180.0274332259011</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,7 +25393,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25408,7 +25408,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.95019664609021</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>127.4407355798596</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>87.41444223540508</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25535,10 +25535,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>95.96902457343647</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>112.6086101805054</v>
       </c>
     </row>
     <row r="40">
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,10 +25614,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3216261362188</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>64.95608353355823</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>179.0370905938155</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>56.32895409182728</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25709,19 +25709,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>147.7072637169731</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>152.2735888923496</v>
       </c>
     </row>
     <row r="43">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>153.2201095061298</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U43" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>29.18989209316331</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4015754382926</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>201.4804884616649</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25946,16 +25946,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>5.170171297202728</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>118.8592197488542</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>152.2735888923496</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26034,10 +26034,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>110.6945273323942</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26079,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>29.18989209316322</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435239.714319743</v>
+        <v>435239.7143197429</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435239.7143197431</v>
+        <v>435239.7143197432</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435239.7143197428</v>
+        <v>435239.714319743</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48844.67728252667</v>
+        <v>48844.67728252668</v>
       </c>
       <c r="C2" t="n">
-        <v>48844.67728252668</v>
+        <v>48844.67728252669</v>
       </c>
       <c r="D2" t="n">
         <v>48844.67728252668</v>
@@ -26328,34 +26328,34 @@
         <v>48844.67728252667</v>
       </c>
       <c r="G2" t="n">
-        <v>48844.67728252667</v>
+        <v>48844.67728252669</v>
       </c>
       <c r="H2" t="n">
         <v>48844.67728252667</v>
       </c>
       <c r="I2" t="n">
-        <v>91190.60188992738</v>
+        <v>91190.60188992739</v>
       </c>
       <c r="J2" t="n">
+        <v>91190.60188992742</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91190.60188992736</v>
+      </c>
+      <c r="L2" t="n">
         <v>91190.60188992739</v>
       </c>
-      <c r="K2" t="n">
-        <v>91190.60188992738</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91190.60188992738</v>
-      </c>
       <c r="M2" t="n">
-        <v>91190.60188992738</v>
+        <v>91190.60188992739</v>
       </c>
       <c r="N2" t="n">
         <v>91190.60188992741</v>
       </c>
       <c r="O2" t="n">
-        <v>91190.60188992735</v>
+        <v>91190.60188992741</v>
       </c>
       <c r="P2" t="n">
-        <v>91190.60188992736</v>
+        <v>91190.60188992739</v>
       </c>
     </row>
     <row r="3">
@@ -26438,13 +26438,13 @@
         <v>18786.41433943334</v>
       </c>
       <c r="I4" t="n">
+        <v>35603.40934884741</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35603.40934884741</v>
+      </c>
+      <c r="K4" t="n">
         <v>35603.40934884742</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35603.40934884742</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35603.40934884741</v>
       </c>
       <c r="L4" t="n">
         <v>35603.40934884742</v>
@@ -26456,7 +26456,7 @@
         <v>35603.40934884741</v>
       </c>
       <c r="O4" t="n">
-        <v>35603.40934884742</v>
+        <v>35603.40934884741</v>
       </c>
       <c r="P4" t="n">
         <v>35603.40934884742</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906668</v>
+        <v>-4996.930551051559</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051551</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-4996.930551051559</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894844</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894845</v>
       </c>
       <c r="H6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="I6" t="n">
-        <v>-19545.88721703192</v>
+        <v>-20647.74282958141</v>
       </c>
       <c r="J6" t="n">
-        <v>41605.56525268038</v>
+        <v>40503.70964013091</v>
       </c>
       <c r="K6" t="n">
-        <v>41605.56525268038</v>
+        <v>40503.70964013084</v>
       </c>
       <c r="L6" t="n">
-        <v>41605.56525268037</v>
+        <v>40503.70964013087</v>
       </c>
       <c r="M6" t="n">
-        <v>41605.56525268038</v>
+        <v>40503.70964013088</v>
       </c>
       <c r="N6" t="n">
-        <v>41605.5652526804</v>
+        <v>40503.7096401309</v>
       </c>
       <c r="O6" t="n">
-        <v>41605.56525268034</v>
+        <v>40503.7096401309</v>
       </c>
       <c r="P6" t="n">
-        <v>41605.56525268035</v>
+        <v>40503.70964013087</v>
       </c>
     </row>
   </sheetData>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>229.9609751381512</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36600,22 +36600,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P27" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N27" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M29" t="n">
         <v>229.9609751381512</v>
@@ -36846,10 +36846,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="P30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L32" t="n">
+      <c r="O32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N32" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M35" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N35" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>106.4120648096125</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N38" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N39" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O39" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L41" t="n">
         <v>229.9609751381512</v>
@@ -37791,7 +37791,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>220.6696226073169</v>
-      </c>
-      <c r="O42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P42" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="Q42" t="n">
         <v>229.9609751381512</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L45" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N45" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
